--- a/docs/[UIA Project] 3.2 Traceability Matrix.xlsx
+++ b/docs/[UIA Project] 3.2 Traceability Matrix.xlsx
@@ -46,7 +46,7 @@
     <t>P / F</t>
   </si>
   <si>
-    <t>TESTING TYPE</t>
+    <t>TESTING INPUT</t>
   </si>
   <si>
     <t>LAST TESTED DATE</t>
